--- a/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/mojri_noekar_namad vs parseh.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/mojri_noekar_namad vs parseh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\pm_jobcard_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E465B151-3242-44C5-8637-A8147830F924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF2117A-F798-426A-AB51-0F6841C4845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D346E355-7962-445D-B953-3E6F0091AC02}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>HY</t>
   </si>
   <si>
-    <t>work_type</t>
-  </si>
-  <si>
     <t>work_type_id</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>IN</t>
+  </si>
+  <si>
+    <t>WOTradesName</t>
   </si>
 </sst>
 </file>
@@ -220,10 +220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -248,7 +247,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9715C0E4-87B7-427A-A81A-21A73A77699C}" name="mojri_namad"/>
     <tableColumn id="2" xr3:uid="{3B55580C-3381-4579-A9D8-37D1391B6D44}" name="mojri_parseh"/>
-    <tableColumn id="3" xr3:uid="{3BB50956-AF5C-4082-8BCE-761FC5DC55CD}" name="work_type"/>
+    <tableColumn id="3" xr3:uid="{3BB50956-AF5C-4082-8BCE-761FC5DC55CD}" name="WOTradesName"/>
     <tableColumn id="4" xr3:uid="{92E3F2DA-F4B2-48A4-ACC2-182DA92E5BE4}" name="work_type_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -555,295 +554,294 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
         <v>48</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/mojri_noekar_namad vs parseh.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/mojri_noekar_namad vs parseh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\pm_jobcard_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF2117A-F798-426A-AB51-0F6841C4845D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC0D47-497C-49DE-8151-9227A2821871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D346E355-7962-445D-B953-3E6F0091AC02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{D346E355-7962-445D-B953-3E6F0091AC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>تعمیرات تاسیسات نیمه صنعتی</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>تعمیرات تاسیسات صنعتی</t>
-  </si>
-  <si>
-    <t>پیمانکاری فراگستر صنایع فولاد سرو</t>
   </si>
   <si>
     <t>تعمیرات تاسیسات آب رسانی</t>
@@ -554,7 +551,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -569,41 +566,41 @@
         <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -614,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -628,10 +625,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -642,10 +639,10 @@
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -656,10 +653,10 @@
         <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -670,10 +667,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -684,10 +681,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -698,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -712,10 +709,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -723,13 +720,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -740,10 +737,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -754,10 +751,10 @@
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
         <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -768,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -782,10 +779,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -796,10 +793,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
         <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -807,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -821,13 +818,13 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
         <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -838,10 +835,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/mojri_noekar_namad vs parseh.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/mojri_noekar_namad vs parseh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\RCM_data_concatinating\سرویس های دوره ای تجهیزات گندله سازی\pm_jobcard_latest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBC0D47-497C-49DE-8151-9227A2821871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F54F9E-B068-4B6F-8B86-AB245F4BA8C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{D346E355-7962-445D-B953-3E6F0091AC02}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{D346E355-7962-445D-B953-3E6F0091AC02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>تعمیرات تاسیسات نیمه صنعتی</t>
   </si>
@@ -175,6 +175,33 @@
   </si>
   <si>
     <t>WOTradesName</t>
+  </si>
+  <si>
+    <t>WOTradesName_Text</t>
+  </si>
+  <si>
+    <t>تاسیساتی</t>
+  </si>
+  <si>
+    <t>برقی</t>
+  </si>
+  <si>
+    <t>مکانیکی</t>
+  </si>
+  <si>
+    <t>ابزار دقیقی</t>
+  </si>
+  <si>
+    <t>هیدرولیک</t>
+  </si>
+  <si>
+    <t>اپراتوری</t>
+  </si>
+  <si>
+    <t>آزمایشگاهی</t>
+  </si>
+  <si>
+    <t>عمرانی</t>
   </si>
 </sst>
 </file>
@@ -239,13 +266,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4D852BD-59BA-4E2A-8FB4-6E634D223620}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{C4D852BD-59BA-4E2A-8FB4-6E634D223620}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4D852BD-59BA-4E2A-8FB4-6E634D223620}" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+  <autoFilter ref="A1:E20" xr:uid="{C4D852BD-59BA-4E2A-8FB4-6E634D223620}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9715C0E4-87B7-427A-A81A-21A73A77699C}" name="mojri_namad"/>
     <tableColumn id="2" xr3:uid="{3B55580C-3381-4579-A9D8-37D1391B6D44}" name="mojri_parseh"/>
     <tableColumn id="3" xr3:uid="{3BB50956-AF5C-4082-8BCE-761FC5DC55CD}" name="WOTradesName"/>
     <tableColumn id="4" xr3:uid="{92E3F2DA-F4B2-48A4-ACC2-182DA92E5BE4}" name="work_type_id"/>
+    <tableColumn id="5" xr3:uid="{14B10C52-A8D0-4980-B35E-06BB778B1805}" name="WOTradesName_Text"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90568782-3F37-4E98-BAEA-C6FE5F15E4DE}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -559,9 +587,10 @@
     <col min="1" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -574,8 +603,11 @@
       <c r="D1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -588,8 +620,11 @@
       <c r="D2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -602,8 +637,11 @@
       <c r="D3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -616,8 +654,11 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -630,8 +671,11 @@
       <c r="D5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -644,8 +688,11 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -658,8 +705,11 @@
       <c r="D7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -672,8 +722,11 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -686,8 +739,11 @@
       <c r="D9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -700,8 +756,11 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -714,8 +773,11 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -728,8 +790,11 @@
       <c r="D12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -742,8 +807,11 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -756,8 +824,11 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -770,8 +841,11 @@
       <c r="D15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -784,8 +858,11 @@
       <c r="D16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -798,8 +875,11 @@
       <c r="D17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -812,8 +892,11 @@
       <c r="D18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -826,8 +909,11 @@
       <c r="D19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -839,6 +925,9 @@
       </c>
       <c r="D20" t="s">
         <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
